--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEFDD2A-828D-4881-8CE3-EA42D7C2E8AA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DB3C9-EA54-4342-BEA6-1CC8F36FB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1824,7 @@
         <v>19</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2110,7 +2110,7 @@
         <v>19</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>21</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
         <v>23</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>15</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2396,7 +2396,7 @@
         <v>19</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,7 +2422,7 @@
         <v>21</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2448,7 +2448,7 @@
         <v>23</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2474,7 +2474,7 @@
         <v>26</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>21</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3020,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="H51">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3488,7 +3488,7 @@
         <v>15</v>
       </c>
       <c r="H69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3540,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3566,7 +3566,7 @@
         <v>21</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4060,7 +4060,7 @@
         <v>15</v>
       </c>
       <c r="H91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4112,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>21</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4164,7 +4164,7 @@
         <v>23</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4710,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>23</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -5542,7 +5542,7 @@
         <v>19</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5568,7 +5568,7 @@
         <v>21</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5594,7 +5594,7 @@
         <v>23</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -6738,7 +6738,7 @@
         <v>23</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -7830,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7856,7 +7856,7 @@
         <v>21</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7882,7 +7882,7 @@
         <v>23</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -8428,7 +8428,7 @@
         <v>21</v>
       </c>
       <c r="H259">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8454,7 +8454,7 @@
         <v>23</v>
       </c>
       <c r="H260">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>13</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -8922,7 +8922,7 @@
         <v>15</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -8948,7 +8948,7 @@
         <v>17</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -8974,7 +8974,7 @@
         <v>19</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -9000,7 +9000,7 @@
         <v>21</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -9026,7 +9026,7 @@
         <v>23</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -9052,7 +9052,7 @@
         <v>26</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -9078,7 +9078,7 @@
         <v>28</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -9780,7 +9780,7 @@
         <v>15</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -9832,7 +9832,7 @@
         <v>19</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -9858,7 +9858,7 @@
         <v>21</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
         <v>23</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -10404,7 +10404,7 @@
         <v>19</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -10430,7 +10430,7 @@
         <v>21</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -10456,7 +10456,7 @@
         <v>23</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -11288,7 +11288,7 @@
         <v>21</v>
       </c>
       <c r="H369">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -12120,7 +12120,7 @@
         <v>19</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -12146,7 +12146,7 @@
         <v>21</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -12172,7 +12172,7 @@
         <v>23</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -22186,7 +22186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H197" sqref="H197"/>
     </sheetView>
   </sheetViews>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DB3C9-EA54-4342-BEA6-1CC8F36FB32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68183DC-4CD9-4489-81DF-234989E4B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="115" sheetId="3" r:id="rId3"/>
     <sheet name="116" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1376,12 +1376,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1689,37 +1692,38 @@
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H408"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1954,7 +1958,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2240,7 +2244,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2526,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2812,7 +2816,7 @@
         <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3102,7 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3956,7 +3960,7 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4242,7 +4246,7 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4528,7 +4532,7 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4814,7 +4818,7 @@
         <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5100,7 +5104,7 @@
         <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5386,7 +5390,7 @@
         <v>31</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,7 +5676,7 @@
         <v>31</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -6530,7 +6534,7 @@
         <v>31</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6816,7 +6820,7 @@
         <v>31</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7102,7 +7106,7 @@
         <v>31</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7388,7 +7392,7 @@
         <v>31</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7674,7 +7678,7 @@
         <v>31</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7960,7 +7964,7 @@
         <v>31</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8246,7 +8250,7 @@
         <v>31</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8532,7 +8536,7 @@
         <v>31</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8818,7 +8822,7 @@
         <v>31</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -9104,7 +9108,7 @@
         <v>31</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -9390,7 +9394,7 @@
         <v>31</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -9676,7 +9680,7 @@
         <v>31</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -10248,7 +10252,7 @@
         <v>31</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -10534,7 +10538,7 @@
         <v>31</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -10820,7 +10824,7 @@
         <v>31</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -11106,7 +11110,7 @@
         <v>31</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -11392,7 +11396,7 @@
         <v>31</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -12250,7 +12254,7 @@
         <v>31</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68183DC-4CD9-4489-81DF-234989E4B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831A48A0-400A-4F9F-9D2E-100CE49BDA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="K399" sqref="K398:K399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2686,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2738,7 +2738,7 @@
         <v>23</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>19</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>21</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3882,7 +3882,7 @@
         <v>23</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4896,7 +4896,7 @@
         <v>13</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5000,7 +5000,7 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
         <v>23</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -6352,7 +6352,7 @@
         <v>15</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>19</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6456,7 +6456,7 @@
         <v>23</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -7452,13 +7452,13 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -7470,7 +7470,7 @@
         <v>13</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7478,13 +7478,13 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C223" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D223" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -7496,7 +7496,7 @@
         <v>15</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7504,13 +7504,13 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C224" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D224" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -7522,7 +7522,7 @@
         <v>17</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7530,13 +7530,13 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C225" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D225" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E225">
         <v>4</v>
@@ -7548,7 +7548,7 @@
         <v>19</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7556,13 +7556,13 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C226" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D226" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E226">
         <v>5</v>
@@ -7574,7 +7574,7 @@
         <v>21</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7582,13 +7582,13 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C227" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D227" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E227">
         <v>6</v>
@@ -7600,7 +7600,7 @@
         <v>23</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7608,13 +7608,13 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C228" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D228" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E228">
         <v>7</v>
@@ -7626,7 +7626,7 @@
         <v>26</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7634,13 +7634,13 @@
         <v>24</v>
       </c>
       <c r="B229" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C229" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D229" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -7652,7 +7652,7 @@
         <v>28</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7660,13 +7660,13 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C230" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D230" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E230">
         <v>9</v>
@@ -7678,7 +7678,7 @@
         <v>31</v>
       </c>
       <c r="H230">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7686,13 +7686,13 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C231" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D231" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E231">
         <v>10</v>
@@ -7712,13 +7712,13 @@
         <v>34</v>
       </c>
       <c r="B232" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C232" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D232" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E232">
         <v>11</v>
@@ -7738,13 +7738,13 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D233" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -7756,7 +7756,7 @@
         <v>13</v>
       </c>
       <c r="H233">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7764,13 +7764,13 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C234" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D234" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -7782,7 +7782,7 @@
         <v>15</v>
       </c>
       <c r="H234">
-        <v>4.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7790,13 +7790,13 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C235" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D235" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -7808,7 +7808,7 @@
         <v>17</v>
       </c>
       <c r="H235">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7816,13 +7816,13 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C236" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D236" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E236">
         <v>4</v>
@@ -7834,7 +7834,7 @@
         <v>19</v>
       </c>
       <c r="H236">
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7842,13 +7842,13 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C237" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D237" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -7860,7 +7860,7 @@
         <v>21</v>
       </c>
       <c r="H237">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7868,13 +7868,13 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C238" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E238">
         <v>6</v>
@@ -7886,7 +7886,7 @@
         <v>23</v>
       </c>
       <c r="H238">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7894,13 +7894,13 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C239" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D239" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E239">
         <v>7</v>
@@ -7912,7 +7912,7 @@
         <v>26</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7920,13 +7920,13 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C240" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D240" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E240">
         <v>8</v>
@@ -7938,7 +7938,7 @@
         <v>28</v>
       </c>
       <c r="H240">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7946,13 +7946,13 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C241" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D241" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E241">
         <v>9</v>
@@ -7964,7 +7964,7 @@
         <v>31</v>
       </c>
       <c r="H241">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7972,13 +7972,13 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C242" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D242" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -7998,13 +7998,13 @@
         <v>34</v>
       </c>
       <c r="B243" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C243" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D243" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E243">
         <v>11</v>
@@ -8354,7 +8354,7 @@
         <v>15</v>
       </c>
       <c r="H256">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>17</v>
       </c>
       <c r="H257">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8406,7 +8406,7 @@
         <v>19</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,7 +8432,7 @@
         <v>21</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8458,7 +8458,7 @@
         <v>23</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8640,7 +8640,7 @@
         <v>15</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8666,7 +8666,7 @@
         <v>17</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8692,7 +8692,7 @@
         <v>19</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8718,7 +8718,7 @@
         <v>21</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8744,7 +8744,7 @@
         <v>23</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8848,7 +8848,7 @@
         <v>33</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -9238,7 +9238,7 @@
         <v>17</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -9264,7 +9264,7 @@
         <v>19</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -9290,7 +9290,7 @@
         <v>21</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9316,7 +9316,7 @@
         <v>23</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9498,7 +9498,7 @@
         <v>15</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>17</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -9550,7 +9550,7 @@
         <v>19</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -9576,7 +9576,7 @@
         <v>21</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -9602,7 +9602,7 @@
         <v>23</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -11526,7 +11526,7 @@
         <v>17</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -11552,7 +11552,7 @@
         <v>19</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -11838,7 +11838,7 @@
         <v>19</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
         <v>21</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11890,7 +11890,7 @@
         <v>23</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Durley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF501C29-32CD-4AA0-95C5-C3F308D0F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F009957-4EBF-424D-87C7-14A396675911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -1691,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="K399" sqref="K398:K399"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4324,7 +4324,7 @@
         <v>13</v>
       </c>
       <c r="H101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
@@ -4350,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="H102">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
@@ -4402,7 +4402,7 @@
         <v>19</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
@@ -4428,7 +4428,7 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
@@ -4454,7 +4454,7 @@
         <v>23</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
@@ -5832,7 +5832,7 @@
         <v>19</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
@@ -5858,7 +5858,7 @@
         <v>21</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
@@ -7210,7 +7210,7 @@
         <v>15</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
@@ -7262,7 +7262,7 @@
         <v>19</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
@@ -7288,7 +7288,7 @@
         <v>21</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
@@ -7314,7 +7314,7 @@
         <v>23</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
@@ -7808,7 +7808,7 @@
         <v>17</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
@@ -7834,7 +7834,7 @@
         <v>19</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
@@ -8848,7 +8848,7 @@
         <v>33</v>
       </c>
       <c r="H275">
-        <v>3.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
@@ -10928,7 +10928,7 @@
         <v>15</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.35">
@@ -10980,7 +10980,7 @@
         <v>19</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.35">
@@ -11006,7 +11006,7 @@
         <v>21</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.35">
@@ -11032,7 +11032,7 @@
         <v>23</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.35">
@@ -12318,7 +12318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+    <sheetView topLeftCell="A305" workbookViewId="0">
       <selection activeCell="E312" sqref="E312"/>
     </sheetView>
   </sheetViews>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01324F55-BF25-4C52-8FBE-FC0623AF3828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FC570-22B6-47BC-9866-D05A07505F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -12314,8 +12314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H379"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="L372" sqref="L372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12350,7 +12350,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -12376,7 +12376,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -12402,7 +12402,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -12424,11 +12424,11 @@
         <v>150</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -12454,7 +12454,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -12480,7 +12480,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -12506,7 +12506,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
@@ -12532,7 +12532,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
@@ -12558,7 +12558,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
@@ -12584,7 +12584,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
@@ -12610,7 +12610,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -12636,7 +12636,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -12662,7 +12662,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -12688,7 +12688,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
@@ -12714,7 +12714,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
@@ -12740,7 +12740,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17" t="s">
@@ -12766,7 +12766,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
@@ -12792,7 +12792,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
@@ -12818,7 +12818,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
@@ -12844,7 +12844,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
@@ -12870,7 +12870,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
@@ -12896,7 +12896,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -12922,7 +12922,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -12948,7 +12948,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -12974,7 +12974,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
@@ -13000,7 +13000,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
@@ -13026,7 +13026,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
@@ -13052,7 +13052,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
@@ -13078,7 +13078,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
@@ -13104,7 +13104,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
@@ -13130,7 +13130,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
@@ -13156,7 +13156,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
@@ -13182,7 +13182,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
@@ -13208,7 +13208,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="B35" t="s">
@@ -13230,11 +13230,11 @@
         <v>31</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="B36" t="s">
@@ -13260,7 +13260,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37" t="s">
@@ -13286,7 +13286,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
@@ -13312,7 +13312,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
@@ -13338,7 +13338,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
@@ -13364,7 +13364,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
@@ -13390,7 +13390,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
@@ -13416,7 +13416,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" t="s">
@@ -13442,7 +13442,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="B44" t="s">
@@ -13468,7 +13468,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="B45" t="s">
@@ -13494,7 +13494,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>34</v>
       </c>
       <c r="B46" t="s">
@@ -13520,7 +13520,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47" t="s">
@@ -13546,7 +13546,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
@@ -13572,7 +13572,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
@@ -13598,7 +13598,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50" t="s">
@@ -13624,7 +13624,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
@@ -13650,7 +13650,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
@@ -13676,7 +13676,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
@@ -13698,11 +13698,11 @@
         <v>31</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
@@ -13728,7 +13728,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>34</v>
       </c>
       <c r="B55" t="s">
@@ -13754,7 +13754,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
@@ -13780,7 +13780,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57" t="s">
@@ -13806,7 +13806,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
@@ -13832,7 +13832,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
@@ -13858,7 +13858,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
@@ -13884,7 +13884,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>24</v>
       </c>
       <c r="B61" t="s">
@@ -13910,7 +13910,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>29</v>
       </c>
       <c r="B62" t="s">
@@ -13936,7 +13936,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>29</v>
       </c>
       <c r="B63" t="s">
@@ -13962,7 +13962,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>34</v>
       </c>
       <c r="B64" t="s">
@@ -13988,7 +13988,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
@@ -14014,7 +14014,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" t="s">
@@ -14040,7 +14040,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" t="s">
@@ -14066,7 +14066,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68" t="s">
@@ -14092,7 +14092,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69" t="s">
@@ -14118,7 +14118,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>24</v>
       </c>
       <c r="B70" t="s">
@@ -14144,7 +14144,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>29</v>
       </c>
       <c r="B71" t="s">
@@ -14170,7 +14170,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>29</v>
       </c>
       <c r="B72" t="s">
@@ -14196,7 +14196,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>34</v>
       </c>
       <c r="B73" t="s">
@@ -14222,7 +14222,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
@@ -14248,7 +14248,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
@@ -14274,7 +14274,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
@@ -14300,7 +14300,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
@@ -14326,7 +14326,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>8</v>
       </c>
       <c r="B78" t="s">
@@ -14352,7 +14352,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>24</v>
       </c>
       <c r="B79" t="s">
@@ -14378,7 +14378,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>29</v>
       </c>
       <c r="B80" t="s">
@@ -14404,7 +14404,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>29</v>
       </c>
       <c r="B81" t="s">
@@ -14430,7 +14430,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>34</v>
       </c>
       <c r="B82" t="s">
@@ -14456,7 +14456,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
@@ -14482,7 +14482,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
@@ -14508,7 +14508,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
@@ -14530,11 +14530,11 @@
         <v>150</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
@@ -14560,7 +14560,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>8</v>
       </c>
       <c r="B87" t="s">
@@ -14586,7 +14586,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>24</v>
       </c>
       <c r="B88" t="s">
@@ -14612,7 +14612,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89" t="s">
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
       <c r="B90" t="s">
@@ -14664,7 +14664,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>34</v>
       </c>
       <c r="B91" t="s">
@@ -14690,7 +14690,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
@@ -14716,7 +14716,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
@@ -14742,7 +14742,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
@@ -14768,7 +14768,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
@@ -14794,7 +14794,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
@@ -14820,7 +14820,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>24</v>
       </c>
       <c r="B97" t="s">
@@ -14846,7 +14846,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>29</v>
       </c>
       <c r="B98" t="s">
@@ -14868,11 +14868,11 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
       <c r="B99" t="s">
@@ -14898,7 +14898,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>34</v>
       </c>
       <c r="B100" t="s">
@@ -14924,7 +14924,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
@@ -14950,7 +14950,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
@@ -14976,7 +14976,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
@@ -15002,7 +15002,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104" t="s">
@@ -15028,7 +15028,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>8</v>
       </c>
       <c r="B105" t="s">
@@ -15054,7 +15054,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>24</v>
       </c>
       <c r="B106" t="s">
@@ -15080,7 +15080,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>29</v>
       </c>
       <c r="B107" t="s">
@@ -15106,7 +15106,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>29</v>
       </c>
       <c r="B108" t="s">
@@ -15132,7 +15132,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>34</v>
       </c>
       <c r="B109" t="s">
@@ -15158,7 +15158,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>8</v>
       </c>
       <c r="B110" t="s">
@@ -15184,7 +15184,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>8</v>
       </c>
       <c r="B111" t="s">
@@ -15210,7 +15210,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" t="s">
@@ -15236,7 +15236,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
@@ -15262,7 +15262,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>8</v>
       </c>
       <c r="B114" t="s">
@@ -15288,7 +15288,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>24</v>
       </c>
       <c r="B115" t="s">
@@ -15314,7 +15314,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>29</v>
       </c>
       <c r="B116" t="s">
@@ -15336,11 +15336,11 @@
         <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>29</v>
       </c>
       <c r="B117" t="s">
@@ -15366,7 +15366,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>34</v>
       </c>
       <c r="B118" t="s">
@@ -15392,7 +15392,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="B119" t="s">
@@ -15418,7 +15418,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>8</v>
       </c>
       <c r="B120" t="s">
@@ -15444,7 +15444,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>8</v>
       </c>
       <c r="B121" t="s">
@@ -15470,7 +15470,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" t="s">
@@ -15496,7 +15496,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123" t="s">
@@ -15522,7 +15522,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>24</v>
       </c>
       <c r="B124" t="s">
@@ -15548,7 +15548,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>29</v>
       </c>
       <c r="B125" t="s">
@@ -15574,7 +15574,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>29</v>
       </c>
       <c r="B126" t="s">
@@ -15600,7 +15600,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>34</v>
       </c>
       <c r="B127" t="s">
@@ -15626,7 +15626,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>8</v>
       </c>
       <c r="B128" t="s">
@@ -15652,7 +15652,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>8</v>
       </c>
       <c r="B129" t="s">
@@ -15678,7 +15678,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>8</v>
       </c>
       <c r="B130" t="s">
@@ -15704,7 +15704,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>8</v>
       </c>
       <c r="B131" t="s">
@@ -15730,7 +15730,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>8</v>
       </c>
       <c r="B132" t="s">
@@ -15756,7 +15756,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>24</v>
       </c>
       <c r="B133" t="s">
@@ -15782,7 +15782,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>29</v>
       </c>
       <c r="B134" t="s">
@@ -15804,11 +15804,11 @@
         <v>31</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>29</v>
       </c>
       <c r="B135" t="s">
@@ -15834,7 +15834,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>34</v>
       </c>
       <c r="B136" t="s">
@@ -15860,7 +15860,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>8</v>
       </c>
       <c r="B137" t="s">
@@ -15886,7 +15886,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>8</v>
       </c>
       <c r="B138" t="s">
@@ -15912,7 +15912,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>8</v>
       </c>
       <c r="B139" t="s">
@@ -15938,7 +15938,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>8</v>
       </c>
       <c r="B140" t="s">
@@ -15964,7 +15964,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>8</v>
       </c>
       <c r="B141" t="s">
@@ -15990,7 +15990,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>24</v>
       </c>
       <c r="B142" t="s">
@@ -16016,7 +16016,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>29</v>
       </c>
       <c r="B143" t="s">
@@ -16042,7 +16042,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>29</v>
       </c>
       <c r="B144" t="s">
@@ -16068,7 +16068,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>34</v>
       </c>
       <c r="B145" t="s">
@@ -16094,7 +16094,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146" t="s">
@@ -16120,7 +16120,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>8</v>
       </c>
       <c r="B147" t="s">
@@ -16146,7 +16146,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="B148" t="s">
@@ -16172,7 +16172,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>8</v>
       </c>
       <c r="B149" t="s">
@@ -16198,7 +16198,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>8</v>
       </c>
       <c r="B150" t="s">
@@ -16224,7 +16224,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>24</v>
       </c>
       <c r="B151" t="s">
@@ -16250,7 +16250,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>29</v>
       </c>
       <c r="B152" t="s">
@@ -16272,11 +16272,11 @@
         <v>31</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>29</v>
       </c>
       <c r="B153" t="s">
@@ -16302,7 +16302,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>34</v>
       </c>
       <c r="B154" t="s">
@@ -16328,7 +16328,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>8</v>
       </c>
       <c r="B155" t="s">
@@ -16354,7 +16354,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>8</v>
       </c>
       <c r="B156" t="s">
@@ -16380,7 +16380,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>8</v>
       </c>
       <c r="B157" t="s">
@@ -16406,7 +16406,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>8</v>
       </c>
       <c r="B158" t="s">
@@ -16432,7 +16432,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>8</v>
       </c>
       <c r="B159" t="s">
@@ -16458,7 +16458,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>24</v>
       </c>
       <c r="B160" t="s">
@@ -16484,7 +16484,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>29</v>
       </c>
       <c r="B161" t="s">
@@ -16510,7 +16510,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>29</v>
       </c>
       <c r="B162" t="s">
@@ -16536,7 +16536,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>34</v>
       </c>
       <c r="B163" t="s">
@@ -16562,7 +16562,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>8</v>
       </c>
       <c r="B164" t="s">
@@ -16588,7 +16588,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
@@ -16614,7 +16614,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" t="s">
@@ -16640,7 +16640,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>8</v>
       </c>
       <c r="B167" t="s">
@@ -16666,7 +16666,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>8</v>
       </c>
       <c r="B168" t="s">
@@ -16692,7 +16692,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>24</v>
       </c>
       <c r="B169" t="s">
@@ -16718,7 +16718,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>29</v>
       </c>
       <c r="B170" t="s">
@@ -16744,7 +16744,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>29</v>
       </c>
       <c r="B171" t="s">
@@ -16770,7 +16770,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>34</v>
       </c>
       <c r="B172" t="s">
@@ -16796,7 +16796,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>8</v>
       </c>
       <c r="B173" t="s">
@@ -16822,7 +16822,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>8</v>
       </c>
       <c r="B174" t="s">
@@ -16848,7 +16848,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>8</v>
       </c>
       <c r="B175" t="s">
@@ -16870,11 +16870,11 @@
         <v>150</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>8</v>
       </c>
       <c r="B176" t="s">
@@ -16900,7 +16900,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>8</v>
       </c>
       <c r="B177" t="s">
@@ -16926,7 +16926,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>24</v>
       </c>
       <c r="B178" t="s">
@@ -16952,7 +16952,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>29</v>
       </c>
       <c r="B179" t="s">
@@ -16974,11 +16974,11 @@
         <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>29</v>
       </c>
       <c r="B180" t="s">
@@ -17004,7 +17004,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>34</v>
       </c>
       <c r="B181" t="s">
@@ -17030,7 +17030,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>8</v>
       </c>
       <c r="B182" t="s">
@@ -17056,7 +17056,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>8</v>
       </c>
       <c r="B183" t="s">
@@ -17082,7 +17082,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>8</v>
       </c>
       <c r="B184" t="s">
@@ -17108,7 +17108,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>8</v>
       </c>
       <c r="B185" t="s">
@@ -17134,7 +17134,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>8</v>
       </c>
       <c r="B186" t="s">
@@ -17160,7 +17160,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>24</v>
       </c>
       <c r="B187" t="s">
@@ -17186,7 +17186,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>29</v>
       </c>
       <c r="B188" t="s">
@@ -17212,7 +17212,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>29</v>
       </c>
       <c r="B189" t="s">
@@ -17238,7 +17238,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>34</v>
       </c>
       <c r="B190" t="s">
@@ -17264,7 +17264,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>8</v>
       </c>
       <c r="B191" t="s">
@@ -17290,7 +17290,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>8</v>
       </c>
       <c r="B192" t="s">
@@ -17316,7 +17316,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>8</v>
       </c>
       <c r="B193" t="s">
@@ -17342,7 +17342,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>8</v>
       </c>
       <c r="B194" t="s">
@@ -17368,7 +17368,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="B195" t="s">
@@ -17394,7 +17394,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>24</v>
       </c>
       <c r="B196" t="s">
@@ -17420,7 +17420,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>29</v>
       </c>
       <c r="B197" t="s">
@@ -17446,7 +17446,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>29</v>
       </c>
       <c r="B198" t="s">
@@ -17472,7 +17472,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>34</v>
       </c>
       <c r="B199" t="s">
@@ -17498,7 +17498,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>8</v>
       </c>
       <c r="B200" t="s">
@@ -17524,7 +17524,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>8</v>
       </c>
       <c r="B201" t="s">
@@ -17550,7 +17550,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="B202" t="s">
@@ -17576,7 +17576,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>8</v>
       </c>
       <c r="B203" t="s">
@@ -17602,7 +17602,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>8</v>
       </c>
       <c r="B204" t="s">
@@ -17628,7 +17628,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>24</v>
       </c>
       <c r="B205" t="s">
@@ -17654,7 +17654,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>29</v>
       </c>
       <c r="B206" t="s">
@@ -17676,11 +17676,11 @@
         <v>31</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>29</v>
       </c>
       <c r="B207" t="s">
@@ -17706,7 +17706,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>34</v>
       </c>
       <c r="B208" t="s">
@@ -17732,7 +17732,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>8</v>
       </c>
       <c r="B209" t="s">
@@ -17758,7 +17758,7 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>8</v>
       </c>
       <c r="B210" t="s">
@@ -17784,7 +17784,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>8</v>
       </c>
       <c r="B211" t="s">
@@ -17810,7 +17810,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>8</v>
       </c>
       <c r="B212" t="s">
@@ -17836,7 +17836,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>8</v>
       </c>
       <c r="B213" t="s">
@@ -17862,7 +17862,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>24</v>
       </c>
       <c r="B214" t="s">
@@ -17888,7 +17888,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>29</v>
       </c>
       <c r="B215" t="s">
@@ -17910,11 +17910,11 @@
         <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>29</v>
       </c>
       <c r="B216" t="s">
@@ -17940,7 +17940,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>34</v>
       </c>
       <c r="B217" t="s">
@@ -17966,7 +17966,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>8</v>
       </c>
       <c r="B218" t="s">
@@ -17992,7 +17992,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>8</v>
       </c>
       <c r="B219" t="s">
@@ -18018,7 +18018,7 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>8</v>
       </c>
       <c r="B220" t="s">
@@ -18044,7 +18044,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>8</v>
       </c>
       <c r="B221" t="s">
@@ -18070,7 +18070,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>8</v>
       </c>
       <c r="B222" t="s">
@@ -18096,7 +18096,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>24</v>
       </c>
       <c r="B223" t="s">
@@ -18122,7 +18122,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>29</v>
       </c>
       <c r="B224" t="s">
@@ -18148,7 +18148,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>29</v>
       </c>
       <c r="B225" t="s">
@@ -18174,7 +18174,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>34</v>
       </c>
       <c r="B226" t="s">
@@ -18200,7 +18200,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>8</v>
       </c>
       <c r="B227" t="s">
@@ -18226,7 +18226,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>8</v>
       </c>
       <c r="B228" t="s">
@@ -18252,7 +18252,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>8</v>
       </c>
       <c r="B229" t="s">
@@ -18278,7 +18278,7 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>8</v>
       </c>
       <c r="B230" t="s">
@@ -18304,7 +18304,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>8</v>
       </c>
       <c r="B231" t="s">
@@ -18330,7 +18330,7 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>24</v>
       </c>
       <c r="B232" t="s">
@@ -18356,7 +18356,7 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>29</v>
       </c>
       <c r="B233" t="s">
@@ -18382,7 +18382,7 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>29</v>
       </c>
       <c r="B234" t="s">
@@ -18408,7 +18408,7 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>34</v>
       </c>
       <c r="B235" t="s">
@@ -18434,7 +18434,7 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>8</v>
       </c>
       <c r="B236" t="s">
@@ -18460,7 +18460,7 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>8</v>
       </c>
       <c r="B237" t="s">
@@ -18486,7 +18486,7 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>8</v>
       </c>
       <c r="B238" t="s">
@@ -18512,7 +18512,7 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>8</v>
       </c>
       <c r="B239" t="s">
@@ -18538,7 +18538,7 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>8</v>
       </c>
       <c r="B240" t="s">
@@ -18564,7 +18564,7 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>24</v>
       </c>
       <c r="B241" t="s">
@@ -18590,7 +18590,7 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>29</v>
       </c>
       <c r="B242" t="s">
@@ -18616,7 +18616,7 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>29</v>
       </c>
       <c r="B243" t="s">
@@ -18642,7 +18642,7 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>34</v>
       </c>
       <c r="B244" t="s">
@@ -18668,7 +18668,7 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>8</v>
       </c>
       <c r="B245" t="s">
@@ -18694,7 +18694,7 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>8</v>
       </c>
       <c r="B246" t="s">
@@ -18720,7 +18720,7 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>8</v>
       </c>
       <c r="B247" t="s">
@@ -18746,7 +18746,7 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>8</v>
       </c>
       <c r="B248" t="s">
@@ -18772,7 +18772,7 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>8</v>
       </c>
       <c r="B249" t="s">
@@ -18798,7 +18798,7 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>24</v>
       </c>
       <c r="B250" t="s">
@@ -18824,7 +18824,7 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>29</v>
       </c>
       <c r="B251" t="s">
@@ -18850,7 +18850,7 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>29</v>
       </c>
       <c r="B252" t="s">
@@ -18876,7 +18876,7 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>34</v>
       </c>
       <c r="B253" t="s">
@@ -18902,7 +18902,7 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>8</v>
       </c>
       <c r="B254" t="s">
@@ -18924,11 +18924,11 @@
         <v>148</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>8</v>
       </c>
       <c r="B255" t="s">
@@ -18954,7 +18954,7 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>8</v>
       </c>
       <c r="B256" t="s">
@@ -18976,11 +18976,11 @@
         <v>150</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>8</v>
       </c>
       <c r="B257" t="s">
@@ -19002,11 +19002,11 @@
         <v>151</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>8</v>
       </c>
       <c r="B258" t="s">
@@ -19032,7 +19032,7 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>24</v>
       </c>
       <c r="B259" t="s">
@@ -19058,7 +19058,7 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>29</v>
       </c>
       <c r="B260" t="s">
@@ -19080,11 +19080,11 @@
         <v>31</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>29</v>
       </c>
       <c r="B261" t="s">
@@ -19110,7 +19110,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>34</v>
       </c>
       <c r="B262" t="s">
@@ -19136,7 +19136,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>8</v>
       </c>
       <c r="B263" t="s">
@@ -19162,7 +19162,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>8</v>
       </c>
       <c r="B264" t="s">
@@ -19188,7 +19188,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>8</v>
       </c>
       <c r="B265" t="s">
@@ -19214,7 +19214,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>8</v>
       </c>
       <c r="B266" t="s">
@@ -19240,7 +19240,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>8</v>
       </c>
       <c r="B267" t="s">
@@ -19266,7 +19266,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>24</v>
       </c>
       <c r="B268" t="s">
@@ -19292,7 +19292,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>29</v>
       </c>
       <c r="B269" t="s">
@@ -19318,7 +19318,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>29</v>
       </c>
       <c r="B270" t="s">
@@ -19344,7 +19344,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>34</v>
       </c>
       <c r="B271" t="s">
@@ -19370,7 +19370,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>8</v>
       </c>
       <c r="B272" t="s">
@@ -19396,7 +19396,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>8</v>
       </c>
       <c r="B273" t="s">
@@ -19422,7 +19422,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>8</v>
       </c>
       <c r="B274" t="s">
@@ -19448,7 +19448,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>8</v>
       </c>
       <c r="B275" t="s">
@@ -19474,7 +19474,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>8</v>
       </c>
       <c r="B276" t="s">
@@ -19500,7 +19500,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>24</v>
       </c>
       <c r="B277" t="s">
@@ -19526,7 +19526,7 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>29</v>
       </c>
       <c r="B278" t="s">
@@ -19552,7 +19552,7 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>29</v>
       </c>
       <c r="B279" t="s">
@@ -19578,7 +19578,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>34</v>
       </c>
       <c r="B280" t="s">
@@ -19604,7 +19604,7 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>8</v>
       </c>
       <c r="B281" t="s">
@@ -19626,11 +19626,11 @@
         <v>148</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>8</v>
       </c>
       <c r="B282" t="s">
@@ -19652,11 +19652,11 @@
         <v>149</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>8</v>
       </c>
       <c r="B283" t="s">
@@ -19682,7 +19682,7 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>8</v>
       </c>
       <c r="B284" t="s">
@@ -19704,11 +19704,11 @@
         <v>151</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>8</v>
       </c>
       <c r="B285" t="s">
@@ -19730,11 +19730,11 @@
         <v>152</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>24</v>
       </c>
       <c r="B286" t="s">
@@ -19760,7 +19760,7 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>29</v>
       </c>
       <c r="B287" t="s">
@@ -19786,7 +19786,7 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>29</v>
       </c>
       <c r="B288" t="s">
@@ -19812,7 +19812,7 @@
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>34</v>
       </c>
       <c r="B289" t="s">
@@ -19838,7 +19838,7 @@
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>8</v>
       </c>
       <c r="B290" t="s">
@@ -19864,7 +19864,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>8</v>
       </c>
       <c r="B291" t="s">
@@ -19890,7 +19890,7 @@
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>8</v>
       </c>
       <c r="B292" t="s">
@@ -19916,7 +19916,7 @@
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>8</v>
       </c>
       <c r="B293" t="s">
@@ -19942,7 +19942,7 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>8</v>
       </c>
       <c r="B294" t="s">
@@ -19968,7 +19968,7 @@
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>24</v>
       </c>
       <c r="B295" t="s">
@@ -19994,7 +19994,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>29</v>
       </c>
       <c r="B296" t="s">
@@ -20020,7 +20020,7 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>29</v>
       </c>
       <c r="B297" t="s">
@@ -20046,7 +20046,7 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>34</v>
       </c>
       <c r="B298" t="s">
@@ -20072,7 +20072,7 @@
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>8</v>
       </c>
       <c r="B299" t="s">
@@ -20098,7 +20098,7 @@
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>8</v>
       </c>
       <c r="B300" t="s">
@@ -20124,7 +20124,7 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>8</v>
       </c>
       <c r="B301" t="s">
@@ -20150,7 +20150,7 @@
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>8</v>
       </c>
       <c r="B302" t="s">
@@ -20176,7 +20176,7 @@
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>8</v>
       </c>
       <c r="B303" t="s">
@@ -20202,7 +20202,7 @@
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>24</v>
       </c>
       <c r="B304" t="s">
@@ -20228,7 +20228,7 @@
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>29</v>
       </c>
       <c r="B305" t="s">
@@ -20254,7 +20254,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>29</v>
       </c>
       <c r="B306" t="s">
@@ -20280,7 +20280,7 @@
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>34</v>
       </c>
       <c r="B307" t="s">
@@ -20306,7 +20306,7 @@
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>8</v>
       </c>
       <c r="B308" t="s">
@@ -20332,7 +20332,7 @@
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>8</v>
       </c>
       <c r="B309" t="s">
@@ -20358,7 +20358,7 @@
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>8</v>
       </c>
       <c r="B310" t="s">
@@ -20384,7 +20384,7 @@
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>8</v>
       </c>
       <c r="B311" t="s">
@@ -20410,7 +20410,7 @@
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>8</v>
       </c>
       <c r="B312" t="s">
@@ -20436,7 +20436,7 @@
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>24</v>
       </c>
       <c r="B313" t="s">
@@ -20462,7 +20462,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>29</v>
       </c>
       <c r="B314" t="s">
@@ -20488,7 +20488,7 @@
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>29</v>
       </c>
       <c r="B315" t="s">
@@ -20514,7 +20514,7 @@
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>34</v>
       </c>
       <c r="B316" t="s">
@@ -20540,7 +20540,7 @@
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>8</v>
       </c>
       <c r="B317" t="s">
@@ -20566,7 +20566,7 @@
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>8</v>
       </c>
       <c r="B318" t="s">
@@ -20592,7 +20592,7 @@
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>8</v>
       </c>
       <c r="B319" t="s">
@@ -20618,7 +20618,7 @@
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>8</v>
       </c>
       <c r="B320" t="s">
@@ -20644,7 +20644,7 @@
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>8</v>
       </c>
       <c r="B321" t="s">
@@ -20670,7 +20670,7 @@
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>24</v>
       </c>
       <c r="B322" t="s">
@@ -20696,7 +20696,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>29</v>
       </c>
       <c r="B323" t="s">
@@ -20722,7 +20722,7 @@
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>29</v>
       </c>
       <c r="B324" t="s">
@@ -20748,7 +20748,7 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>34</v>
       </c>
       <c r="B325" t="s">
@@ -20774,7 +20774,7 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>8</v>
       </c>
       <c r="B326" t="s">
@@ -20800,7 +20800,7 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>8</v>
       </c>
       <c r="B327" t="s">
@@ -20826,7 +20826,7 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>8</v>
       </c>
       <c r="B328" t="s">
@@ -20852,7 +20852,7 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>8</v>
       </c>
       <c r="B329" t="s">
@@ -20878,7 +20878,7 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>8</v>
       </c>
       <c r="B330" t="s">
@@ -20904,7 +20904,7 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>24</v>
       </c>
       <c r="B331" t="s">
@@ -20930,7 +20930,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>29</v>
       </c>
       <c r="B332" t="s">
@@ -20952,11 +20952,11 @@
         <v>31</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>29</v>
       </c>
       <c r="B333" t="s">
@@ -20982,7 +20982,7 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>34</v>
       </c>
       <c r="B334" t="s">
@@ -21008,7 +21008,7 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>8</v>
       </c>
       <c r="B335" t="s">
@@ -21034,7 +21034,7 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>8</v>
       </c>
       <c r="B336" t="s">
@@ -21060,7 +21060,7 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>8</v>
       </c>
       <c r="B337" t="s">
@@ -21086,7 +21086,7 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>8</v>
       </c>
       <c r="B338" t="s">
@@ -21112,7 +21112,7 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>8</v>
       </c>
       <c r="B339" t="s">
@@ -21138,7 +21138,7 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>24</v>
       </c>
       <c r="B340" t="s">
@@ -21164,7 +21164,7 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>29</v>
       </c>
       <c r="B341" t="s">
@@ -21190,7 +21190,7 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>29</v>
       </c>
       <c r="B342" t="s">
@@ -21216,7 +21216,7 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>34</v>
       </c>
       <c r="B343" t="s">
@@ -21242,7 +21242,7 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>8</v>
       </c>
       <c r="B344" t="s">
@@ -21268,7 +21268,7 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>8</v>
       </c>
       <c r="B345" t="s">
@@ -21294,7 +21294,7 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>8</v>
       </c>
       <c r="B346" t="s">
@@ -21320,7 +21320,7 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>8</v>
       </c>
       <c r="B347" t="s">
@@ -21346,7 +21346,7 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>8</v>
       </c>
       <c r="B348" t="s">
@@ -21372,7 +21372,7 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>24</v>
       </c>
       <c r="B349" t="s">
@@ -21398,7 +21398,7 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>29</v>
       </c>
       <c r="B350" t="s">
@@ -21424,7 +21424,7 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>29</v>
       </c>
       <c r="B351" t="s">
@@ -21450,7 +21450,7 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>34</v>
       </c>
       <c r="B352" t="s">
@@ -21476,7 +21476,7 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>8</v>
       </c>
       <c r="B353" t="s">
@@ -21502,7 +21502,7 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>8</v>
       </c>
       <c r="B354" t="s">
@@ -21528,7 +21528,7 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>8</v>
       </c>
       <c r="B355" t="s">
@@ -21554,7 +21554,7 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>8</v>
       </c>
       <c r="B356" t="s">
@@ -21580,7 +21580,7 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>8</v>
       </c>
       <c r="B357" t="s">
@@ -21606,7 +21606,7 @@
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>24</v>
       </c>
       <c r="B358" t="s">
@@ -21632,7 +21632,7 @@
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>29</v>
       </c>
       <c r="B359" t="s">
@@ -21654,11 +21654,11 @@
         <v>31</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>29</v>
       </c>
       <c r="B360" t="s">
@@ -21684,7 +21684,7 @@
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>34</v>
       </c>
       <c r="B361" t="s">
@@ -21710,7 +21710,7 @@
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>8</v>
       </c>
       <c r="B362" t="s">
@@ -21736,7 +21736,7 @@
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>8</v>
       </c>
       <c r="B363" t="s">
@@ -21762,7 +21762,7 @@
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>8</v>
       </c>
       <c r="B364" t="s">
@@ -21788,7 +21788,7 @@
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>8</v>
       </c>
       <c r="B365" t="s">
@@ -21810,11 +21810,11 @@
         <v>151</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>8</v>
       </c>
       <c r="B366" t="s">
@@ -21840,7 +21840,7 @@
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>24</v>
       </c>
       <c r="B367" t="s">
@@ -21866,7 +21866,7 @@
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>29</v>
       </c>
       <c r="B368" t="s">
@@ -21892,7 +21892,7 @@
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>29</v>
       </c>
       <c r="B369" t="s">
@@ -21918,7 +21918,7 @@
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>34</v>
       </c>
       <c r="B370" t="s">
@@ -21944,7 +21944,7 @@
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>8</v>
       </c>
       <c r="B371" t="s">
@@ -21970,7 +21970,7 @@
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>8</v>
       </c>
       <c r="B372" t="s">
@@ -21996,7 +21996,7 @@
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>8</v>
       </c>
       <c r="B373" t="s">
@@ -22022,7 +22022,7 @@
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>8</v>
       </c>
       <c r="B374" t="s">
@@ -22048,7 +22048,7 @@
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>8</v>
       </c>
       <c r="B375" t="s">
@@ -22074,7 +22074,7 @@
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>24</v>
       </c>
       <c r="B376" t="s">
@@ -22100,7 +22100,7 @@
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>29</v>
       </c>
       <c r="B377" t="s">
@@ -22122,11 +22122,11 @@
         <v>31</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>29</v>
       </c>
       <c r="B378" t="s">
@@ -22152,7 +22152,7 @@
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>34</v>
       </c>
       <c r="B379" t="s">
@@ -27612,7 +27612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83FC570-22B6-47BC-9866-D05A07505F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85F05C-95DF-4D22-AFFF-F35DA0561EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12315,7 +12315,7 @@
   <dimension ref="A1:H379"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="L372" sqref="L372"/>
+      <selection activeCell="A2" sqref="A2:H379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20978,7 +20978,7 @@
         <v>33</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -21498,7 +21498,7 @@
         <v>148</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -21524,7 +21524,7 @@
         <v>149</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -21576,7 +21576,7 @@
         <v>151</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -21680,7 +21680,7 @@
         <v>33</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -21888,7 +21888,7 @@
         <v>31</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -21914,7 +21914,7 @@
         <v>33</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -22148,7 +22148,7 @@
         <v>33</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -22174,7 +22174,7 @@
         <v>36</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB85F05C-95DF-4D22-AFFF-F35DA0561EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852AFCD7-4A40-4481-92A8-8F297474AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -12314,8 +12314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H379"/>
+    <sheetView topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="E375" sqref="E375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27612,8 +27612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27645,7 +27645,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -27671,7 +27671,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -27697,7 +27697,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
@@ -27723,7 +27723,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -27749,7 +27749,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
@@ -27775,7 +27775,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="B7" t="s">
@@ -27801,7 +27801,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
@@ -27827,7 +27827,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
@@ -27849,11 +27849,11 @@
         <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
@@ -27879,7 +27879,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
@@ -27905,7 +27905,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -27931,7 +27931,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
@@ -27957,7 +27957,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -27983,7 +27983,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
@@ -28009,7 +28009,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -28035,7 +28035,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
@@ -28061,7 +28061,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
@@ -28087,7 +28087,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
@@ -28109,11 +28109,11 @@
         <v>31</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
@@ -28139,7 +28139,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21" t="s">
@@ -28165,7 +28165,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
@@ -28191,7 +28191,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
@@ -28217,7 +28217,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
@@ -28243,7 +28243,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -28269,7 +28269,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
@@ -28295,7 +28295,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
@@ -28321,7 +28321,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -28347,7 +28347,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
@@ -28369,11 +28369,11 @@
         <v>31</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -28399,7 +28399,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
@@ -28425,7 +28425,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
@@ -28451,7 +28451,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
@@ -28477,7 +28477,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
@@ -28503,7 +28503,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
@@ -28529,7 +28529,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
@@ -28555,7 +28555,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>24</v>
       </c>
       <c r="B37" t="s">
@@ -28581,7 +28581,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
       <c r="B38" t="s">
@@ -28607,7 +28607,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="B39" t="s">
@@ -28633,7 +28633,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>29</v>
       </c>
       <c r="B40" t="s">
@@ -28659,7 +28659,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>34</v>
       </c>
       <c r="B41" t="s">
@@ -28685,7 +28685,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
@@ -28711,7 +28711,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
@@ -28737,7 +28737,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
@@ -28763,7 +28763,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
@@ -28789,7 +28789,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
@@ -28815,7 +28815,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
       <c r="B47" t="s">
@@ -28841,7 +28841,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>24</v>
       </c>
       <c r="B48" t="s">
@@ -28867,7 +28867,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>29</v>
       </c>
       <c r="B49" t="s">
@@ -28889,11 +28889,11 @@
         <v>31</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>29</v>
       </c>
       <c r="B50" t="s">
@@ -28919,7 +28919,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>34</v>
       </c>
       <c r="B51" t="s">
@@ -28945,7 +28945,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" t="s">
@@ -28971,7 +28971,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
@@ -28997,7 +28997,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
@@ -29023,7 +29023,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
@@ -29049,7 +29049,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
@@ -29075,7 +29075,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>24</v>
       </c>
       <c r="B57" t="s">
@@ -29101,7 +29101,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58" t="s">
@@ -29127,7 +29127,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>29</v>
       </c>
       <c r="B59" t="s">
@@ -29149,11 +29149,11 @@
         <v>31</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
       <c r="B60" t="s">
@@ -29179,7 +29179,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>34</v>
       </c>
       <c r="B61" t="s">
@@ -29205,7 +29205,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
@@ -29231,7 +29231,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
@@ -29257,7 +29257,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
@@ -29279,11 +29279,11 @@
         <v>356</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
@@ -29309,7 +29309,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>8</v>
       </c>
       <c r="B66" t="s">
@@ -29335,7 +29335,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>24</v>
       </c>
       <c r="B67" t="s">
@@ -29361,7 +29361,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>24</v>
       </c>
       <c r="B68" t="s">
@@ -29387,7 +29387,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>29</v>
       </c>
       <c r="B69" t="s">
@@ -29409,11 +29409,11 @@
         <v>31</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>29</v>
       </c>
       <c r="B70" t="s">
@@ -29439,7 +29439,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>34</v>
       </c>
       <c r="B71" t="s">
@@ -29465,7 +29465,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72" t="s">
@@ -29491,7 +29491,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
@@ -29517,7 +29517,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
@@ -29543,7 +29543,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75" t="s">
@@ -29569,7 +29569,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
@@ -29595,7 +29595,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>24</v>
       </c>
       <c r="B77" t="s">
@@ -29621,7 +29621,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>24</v>
       </c>
       <c r="B78" t="s">
@@ -29647,7 +29647,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>29</v>
       </c>
       <c r="B79" t="s">
@@ -29669,11 +29669,11 @@
         <v>31</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>29</v>
       </c>
       <c r="B80" t="s">
@@ -29699,7 +29699,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>34</v>
       </c>
       <c r="B81" t="s">
@@ -29725,7 +29725,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>8</v>
       </c>
       <c r="B82" t="s">
@@ -29751,7 +29751,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>8</v>
       </c>
       <c r="B83" t="s">
@@ -29777,7 +29777,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
@@ -29803,7 +29803,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
@@ -29829,7 +29829,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
@@ -29855,7 +29855,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>24</v>
       </c>
       <c r="B87" t="s">
@@ -29881,7 +29881,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>24</v>
       </c>
       <c r="B88" t="s">
@@ -29907,7 +29907,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>29</v>
       </c>
       <c r="B89" t="s">
@@ -29929,11 +29929,11 @@
         <v>31</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>29</v>
       </c>
       <c r="B90" t="s">
@@ -29959,7 +29959,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>34</v>
       </c>
       <c r="B91" t="s">
@@ -29985,7 +29985,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>8</v>
       </c>
       <c r="B92" t="s">
@@ -30011,7 +30011,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
@@ -30037,7 +30037,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
@@ -30063,7 +30063,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
@@ -30089,7 +30089,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
@@ -30115,7 +30115,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>24</v>
       </c>
       <c r="B97" t="s">
@@ -30141,7 +30141,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>24</v>
       </c>
       <c r="B98" t="s">
@@ -30167,7 +30167,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
       <c r="B99" t="s">
@@ -30193,7 +30193,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>29</v>
       </c>
       <c r="B100" t="s">
@@ -30219,7 +30219,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>34</v>
       </c>
       <c r="B101" t="s">
@@ -30245,7 +30245,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
@@ -30271,7 +30271,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>8</v>
       </c>
       <c r="B103" t="s">
@@ -30297,7 +30297,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>8</v>
       </c>
       <c r="B104" t="s">
@@ -30323,7 +30323,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>8</v>
       </c>
       <c r="B105" t="s">
@@ -30349,7 +30349,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>8</v>
       </c>
       <c r="B106" t="s">
@@ -30375,7 +30375,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>24</v>
       </c>
       <c r="B107" t="s">
@@ -30401,7 +30401,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>24</v>
       </c>
       <c r="B108" t="s">
@@ -30427,7 +30427,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>29</v>
       </c>
       <c r="B109" t="s">
@@ -30449,11 +30449,11 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>29</v>
       </c>
       <c r="B110" t="s">
@@ -30479,7 +30479,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>34</v>
       </c>
       <c r="B111" t="s">
@@ -30505,7 +30505,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>8</v>
       </c>
       <c r="B112" t="s">
@@ -30531,7 +30531,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>8</v>
       </c>
       <c r="B113" t="s">
@@ -30557,7 +30557,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>8</v>
       </c>
       <c r="B114" t="s">
@@ -30583,7 +30583,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>8</v>
       </c>
       <c r="B115" t="s">
@@ -30609,7 +30609,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>8</v>
       </c>
       <c r="B116" t="s">
@@ -30635,7 +30635,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>24</v>
       </c>
       <c r="B117" t="s">
@@ -30661,7 +30661,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>24</v>
       </c>
       <c r="B118" t="s">
@@ -30687,7 +30687,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>29</v>
       </c>
       <c r="B119" t="s">
@@ -30709,11 +30709,11 @@
         <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>29</v>
       </c>
       <c r="B120" t="s">
@@ -30739,7 +30739,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>34</v>
       </c>
       <c r="B121" t="s">
@@ -30765,7 +30765,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>8</v>
       </c>
       <c r="B122" t="s">
@@ -30791,7 +30791,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>8</v>
       </c>
       <c r="B123" t="s">
@@ -30817,7 +30817,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>8</v>
       </c>
       <c r="B124" t="s">
@@ -30839,11 +30839,11 @@
         <v>356</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>8</v>
       </c>
       <c r="B125" t="s">
@@ -30869,7 +30869,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>8</v>
       </c>
       <c r="B126" t="s">
@@ -30895,7 +30895,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>24</v>
       </c>
       <c r="B127" t="s">
@@ -30921,7 +30921,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>24</v>
       </c>
       <c r="B128" t="s">
@@ -30947,7 +30947,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>29</v>
       </c>
       <c r="B129" t="s">
@@ -30969,11 +30969,11 @@
         <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>29</v>
       </c>
       <c r="B130" t="s">
@@ -30999,7 +30999,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>34</v>
       </c>
       <c r="B131" t="s">
@@ -31025,7 +31025,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>8</v>
       </c>
       <c r="B132" t="s">
@@ -31051,7 +31051,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>8</v>
       </c>
       <c r="B133" t="s">
@@ -31077,7 +31077,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>8</v>
       </c>
       <c r="B134" t="s">
@@ -31103,7 +31103,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>8</v>
       </c>
       <c r="B135" t="s">
@@ -31129,7 +31129,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>8</v>
       </c>
       <c r="B136" t="s">
@@ -31155,7 +31155,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>24</v>
       </c>
       <c r="B137" t="s">
@@ -31181,7 +31181,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>24</v>
       </c>
       <c r="B138" t="s">
@@ -31207,7 +31207,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>29</v>
       </c>
       <c r="B139" t="s">
@@ -31233,7 +31233,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>29</v>
       </c>
       <c r="B140" t="s">
@@ -31259,7 +31259,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>34</v>
       </c>
       <c r="B141" t="s">
@@ -31285,7 +31285,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>8</v>
       </c>
       <c r="B142" t="s">
@@ -31311,7 +31311,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>8</v>
       </c>
       <c r="B143" t="s">
@@ -31337,7 +31337,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>8</v>
       </c>
       <c r="B144" t="s">
@@ -31363,7 +31363,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>8</v>
       </c>
       <c r="B145" t="s">
@@ -31389,7 +31389,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>8</v>
       </c>
       <c r="B146" t="s">
@@ -31415,7 +31415,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>24</v>
       </c>
       <c r="B147" t="s">
@@ -31441,7 +31441,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>24</v>
       </c>
       <c r="B148" t="s">
@@ -31467,7 +31467,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>29</v>
       </c>
       <c r="B149" t="s">
@@ -31489,11 +31489,11 @@
         <v>31</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>29</v>
       </c>
       <c r="B150" t="s">
@@ -31519,7 +31519,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>34</v>
       </c>
       <c r="B151" t="s">
@@ -31545,7 +31545,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>8</v>
       </c>
       <c r="B152" t="s">
@@ -31571,7 +31571,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>8</v>
       </c>
       <c r="B153" t="s">
@@ -31597,7 +31597,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="B154" t="s">
@@ -31623,7 +31623,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>8</v>
       </c>
       <c r="B155" t="s">
@@ -31649,7 +31649,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>8</v>
       </c>
       <c r="B156" t="s">
@@ -31675,7 +31675,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>24</v>
       </c>
       <c r="B157" t="s">
@@ -31701,7 +31701,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>24</v>
       </c>
       <c r="B158" t="s">
@@ -31727,7 +31727,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>29</v>
       </c>
       <c r="B159" t="s">
@@ -31749,11 +31749,11 @@
         <v>31</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>29</v>
       </c>
       <c r="B160" t="s">
@@ -31779,7 +31779,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>34</v>
       </c>
       <c r="B161" t="s">
@@ -31805,7 +31805,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>8</v>
       </c>
       <c r="B162" t="s">
@@ -31831,7 +31831,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>8</v>
       </c>
       <c r="B163" t="s">
@@ -31857,7 +31857,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" t="s">
         <v>8</v>
       </c>
       <c r="B164" t="s">
@@ -31883,7 +31883,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" t="s">
         <v>8</v>
       </c>
       <c r="B165" t="s">
@@ -31909,7 +31909,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" t="s">
@@ -31935,7 +31935,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>24</v>
       </c>
       <c r="B167" t="s">
@@ -31961,7 +31961,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" t="s">
         <v>24</v>
       </c>
       <c r="B168" t="s">
@@ -31987,7 +31987,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" t="s">
         <v>29</v>
       </c>
       <c r="B169" t="s">
@@ -32013,7 +32013,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>29</v>
       </c>
       <c r="B170" t="s">
@@ -32039,7 +32039,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>34</v>
       </c>
       <c r="B171" t="s">
@@ -32065,7 +32065,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>8</v>
       </c>
       <c r="B172" t="s">
@@ -32091,7 +32091,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" t="s">
         <v>8</v>
       </c>
       <c r="B173" t="s">
@@ -32117,7 +32117,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" t="s">
         <v>8</v>
       </c>
       <c r="B174" t="s">
@@ -32143,7 +32143,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>8</v>
       </c>
       <c r="B175" t="s">
@@ -32169,7 +32169,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>8</v>
       </c>
       <c r="B176" t="s">
@@ -32195,7 +32195,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>24</v>
       </c>
       <c r="B177" t="s">
@@ -32221,7 +32221,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>24</v>
       </c>
       <c r="B178" t="s">
@@ -32247,7 +32247,7 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" t="s">
         <v>29</v>
       </c>
       <c r="B179" t="s">
@@ -32269,11 +32269,11 @@
         <v>31</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>29</v>
       </c>
       <c r="B180" t="s">
@@ -32299,7 +32299,7 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>34</v>
       </c>
       <c r="B181" t="s">
@@ -32325,7 +32325,7 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>8</v>
       </c>
       <c r="B182" t="s">
@@ -32351,7 +32351,7 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>8</v>
       </c>
       <c r="B183" t="s">
@@ -32377,7 +32377,7 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>8</v>
       </c>
       <c r="B184" t="s">
@@ -32403,7 +32403,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>8</v>
       </c>
       <c r="B185" t="s">
@@ -32429,7 +32429,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>8</v>
       </c>
       <c r="B186" t="s">
@@ -32455,7 +32455,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>24</v>
       </c>
       <c r="B187" t="s">
@@ -32481,7 +32481,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>24</v>
       </c>
       <c r="B188" t="s">
@@ -32507,7 +32507,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>29</v>
       </c>
       <c r="B189" t="s">
@@ -32529,11 +32529,11 @@
         <v>31</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>29</v>
       </c>
       <c r="B190" t="s">
@@ -32559,7 +32559,7 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>34</v>
       </c>
       <c r="B191" t="s">
@@ -32585,7 +32585,7 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>8</v>
       </c>
       <c r="B192" t="s">
@@ -32611,7 +32611,7 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>8</v>
       </c>
       <c r="B193" t="s">
@@ -32637,7 +32637,7 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>8</v>
       </c>
       <c r="B194" t="s">
@@ -32663,7 +32663,7 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>8</v>
       </c>
       <c r="B195" t="s">
@@ -32689,7 +32689,7 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>8</v>
       </c>
       <c r="B196" t="s">
@@ -32715,7 +32715,7 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>24</v>
       </c>
       <c r="B197" t="s">
@@ -32741,7 +32741,7 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
         <v>24</v>
       </c>
       <c r="B198" t="s">
@@ -32767,7 +32767,7 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" t="s">
         <v>29</v>
       </c>
       <c r="B199" t="s">
@@ -32793,7 +32793,7 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>29</v>
       </c>
       <c r="B200" t="s">
@@ -32819,7 +32819,7 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>34</v>
       </c>
       <c r="B201" t="s">
@@ -32845,7 +32845,7 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>8</v>
       </c>
       <c r="B202" t="s">
@@ -32871,7 +32871,7 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
         <v>8</v>
       </c>
       <c r="B203" t="s">
@@ -32897,7 +32897,7 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" t="s">
         <v>8</v>
       </c>
       <c r="B204" t="s">
@@ -32923,7 +32923,7 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>8</v>
       </c>
       <c r="B205" t="s">
@@ -32949,7 +32949,7 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>8</v>
       </c>
       <c r="B206" t="s">
@@ -32975,7 +32975,7 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>24</v>
       </c>
       <c r="B207" t="s">
@@ -33001,7 +33001,7 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>24</v>
       </c>
       <c r="B208" t="s">
@@ -33027,7 +33027,7 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="A209" t="s">
         <v>29</v>
       </c>
       <c r="B209" t="s">
@@ -33049,11 +33049,11 @@
         <v>31</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>29</v>
       </c>
       <c r="B210" t="s">
@@ -33079,7 +33079,7 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>34</v>
       </c>
       <c r="B211" t="s">
@@ -33105,7 +33105,7 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>8</v>
       </c>
       <c r="B212" t="s">
@@ -33131,7 +33131,7 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="A213" t="s">
         <v>8</v>
       </c>
       <c r="B213" t="s">
@@ -33157,7 +33157,7 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" t="s">
         <v>8</v>
       </c>
       <c r="B214" t="s">
@@ -33183,7 +33183,7 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" t="s">
         <v>8</v>
       </c>
       <c r="B215" t="s">
@@ -33209,7 +33209,7 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="A216" t="s">
         <v>8</v>
       </c>
       <c r="B216" t="s">
@@ -33235,7 +33235,7 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="A217" t="s">
         <v>24</v>
       </c>
       <c r="B217" t="s">
@@ -33261,7 +33261,7 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>24</v>
       </c>
       <c r="B218" t="s">
@@ -33287,7 +33287,7 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>29</v>
       </c>
       <c r="B219" t="s">
@@ -33309,11 +33309,11 @@
         <v>31</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" t="s">
         <v>29</v>
       </c>
       <c r="B220" t="s">
@@ -33339,7 +33339,7 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
         <v>34</v>
       </c>
       <c r="B221" t="s">
@@ -33365,7 +33365,7 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="A222" t="s">
         <v>8</v>
       </c>
       <c r="B222" t="s">
@@ -33391,7 +33391,7 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="A223" t="s">
         <v>8</v>
       </c>
       <c r="B223" t="s">
@@ -33417,7 +33417,7 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="A224" t="s">
         <v>8</v>
       </c>
       <c r="B224" t="s">
@@ -33443,7 +33443,7 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="A225" t="s">
         <v>8</v>
       </c>
       <c r="B225" t="s">
@@ -33469,7 +33469,7 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="A226" t="s">
         <v>8</v>
       </c>
       <c r="B226" t="s">
@@ -33495,7 +33495,7 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" t="s">
         <v>24</v>
       </c>
       <c r="B227" t="s">
@@ -33521,7 +33521,7 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" t="s">
         <v>24</v>
       </c>
       <c r="B228" t="s">
@@ -33547,7 +33547,7 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="A229" t="s">
         <v>29</v>
       </c>
       <c r="B229" t="s">
@@ -33569,11 +33569,11 @@
         <v>31</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="A230" t="s">
         <v>29</v>
       </c>
       <c r="B230" t="s">
@@ -33599,7 +33599,7 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="A231" t="s">
         <v>34</v>
       </c>
       <c r="B231" t="s">

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -19765,7 +19765,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="100">
@@ -20449,7 +20449,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="118">
@@ -21133,7 +21133,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -21817,7 +21817,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -23869,7 +23869,7 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="208">
@@ -24211,7 +24211,7 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -28657,7 +28657,7 @@
         </is>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -30419,7 +30419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:H1"/>
@@ -31647,7 +31647,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -32331,7 +32331,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51">
@@ -32673,7 +32673,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="60">
@@ -35067,7 +35067,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="123">
@@ -35409,7 +35409,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -35751,7 +35751,7 @@
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="141">
@@ -36636,17 +36636,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -36674,17 +36674,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -36701,7 +36701,7 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -36712,17 +36712,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="167">
@@ -36750,17 +36750,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -36788,17 +36788,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -36815,7 +36815,7 @@
         </is>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
@@ -36826,17 +36826,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -36853,7 +36853,7 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="170">
@@ -36864,17 +36864,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -36902,17 +36902,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -36940,17 +36940,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>210307</t>
+          <t>240667</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4586271</t>
+          <t>1035974995</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
+          <t>OSPINA ESCOBAR, SEBASTIAN</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -36967,7 +36967,7 @@
         </is>
       </c>
       <c r="H172" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -36978,17 +36978,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -37005,7 +37005,7 @@
         </is>
       </c>
       <c r="H173" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174">
@@ -37016,17 +37016,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -37043,7 +37043,7 @@
         </is>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="175">
@@ -37054,17 +37054,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -37092,17 +37092,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -37119,7 +37119,7 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="177">
@@ -37130,17 +37130,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -37157,7 +37157,7 @@
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -37168,17 +37168,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -37195,7 +37195,7 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -37206,17 +37206,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -37244,17 +37244,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -37282,17 +37282,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>210167</t>
+          <t>210307</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1078637012</t>
+          <t>4586271</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ROLDAN  GALLO, HALAN STIVEN</t>
+          <t>PLANCHEZ URDANETA, GLEINNYS DE LA CHIQUINQUIRA</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -37309,7 +37309,7 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="182">
@@ -37320,17 +37320,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -37347,7 +37347,7 @@
         </is>
       </c>
       <c r="H182" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="183">
@@ -37358,17 +37358,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -37385,7 +37385,7 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -37396,17 +37396,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -37423,7 +37423,7 @@
         </is>
       </c>
       <c r="H184" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -37434,17 +37434,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -37472,17 +37472,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -37499,7 +37499,7 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -37510,17 +37510,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -37537,7 +37537,7 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -37548,17 +37548,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -37586,17 +37586,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -37624,17 +37624,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>210019</t>
+          <t>210167</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1038263883</t>
+          <t>1078637012</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>TABORDA GAVIRIA, JERONIMO</t>
+          <t>ROLDAN  GALLO, HALAN STIVEN</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -37651,7 +37651,7 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -37662,17 +37662,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -37700,17 +37700,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -37727,7 +37727,7 @@
         </is>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
@@ -37738,17 +37738,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -37765,7 +37765,7 @@
         </is>
       </c>
       <c r="H193" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
@@ -37776,17 +37776,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -37814,17 +37814,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -37841,7 +37841,7 @@
         </is>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -37852,17 +37852,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -37879,7 +37879,7 @@
         </is>
       </c>
       <c r="H196" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
@@ -37890,17 +37890,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -37928,17 +37928,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -37966,17 +37966,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>150447</t>
+          <t>210019</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>N37624903911</t>
+          <t>1038263883</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>YU LUO, WENJIN</t>
+          <t>TABORDA GAVIRIA, JERONIMO</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -37993,7 +37993,7 @@
         </is>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -38004,17 +38004,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -38031,7 +38031,7 @@
         </is>
       </c>
       <c r="H200" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
@@ -38042,17 +38042,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -38080,17 +38080,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -38107,7 +38107,7 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -38118,17 +38118,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -38145,7 +38145,7 @@
         </is>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="204">
@@ -38156,17 +38156,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -38183,7 +38183,7 @@
         </is>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -38194,17 +38194,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -38221,7 +38221,7 @@
         </is>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="206">
@@ -38232,17 +38232,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -38270,17 +38270,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -38308,17 +38308,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>220244</t>
+          <t>150447</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1038263973</t>
+          <t>N37624903911</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+          <t>YU LUO, WENJIN</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -38335,6 +38335,348 @@
         </is>
       </c>
       <c r="H208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>HACER</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Taller de ángulos y Pitágoras</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>HACER</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>2</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Ejercicios de resolución de triángulos</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>HACER</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>3</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Problemas estadística (8,10)</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>HACER</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>4</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Guía 1 de estadistica</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>SABER</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>7</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Prueba tipo icfes</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>SABER</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>8</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Problema reglas de tres</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>AUTOEVALUACIÓN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>9</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.1 </t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Autoevaluación</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>AUTOEVALUACIÓN</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>10</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3.2 </t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Heteroevaluación</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>PRUEBA_PERIODO</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>220244</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>1038263973</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ZAPATA  GONZALEZ, NYCHOLL</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>11</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Prueba de periodo</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
         <v>2.2</v>
       </c>
     </row>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A3D57C-E834-4067-93BD-6AC132225407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251C0AB7-75CE-4741-AC6F-3F3DB6C9C306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="105" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7418" uniqueCount="430">
   <si>
     <t>PROCESO</t>
   </si>
@@ -1310,6 +1310,9 @@
   </si>
   <si>
     <t>VELEZ  VILLA, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,7 +1714,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1940,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,7 +2229,7 @@
         <v>31</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2512,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2616,7 +2619,7 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2668,7 +2671,7 @@
         <v>19</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,7 +2697,7 @@
         <v>21</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2720,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2798,7 +2801,7 @@
         <v>31</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2954,7 +2957,7 @@
         <v>19</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2980,7 +2983,7 @@
         <v>21</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3006,7 +3009,7 @@
         <v>23</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3084,7 +3087,7 @@
         <v>31</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3760,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -3812,7 +3815,7 @@
         <v>19</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -3838,7 +3841,7 @@
         <v>21</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3864,7 +3867,7 @@
         <v>23</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -3942,7 +3945,7 @@
         <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4228,7 +4231,7 @@
         <v>31</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4306,7 +4309,7 @@
         <v>13</v>
       </c>
       <c r="H101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4332,7 +4335,7 @@
         <v>15</v>
       </c>
       <c r="H102">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4384,7 +4387,7 @@
         <v>19</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4410,7 +4413,7 @@
         <v>21</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4436,7 +4439,7 @@
         <v>23</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4514,7 +4517,7 @@
         <v>31</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4800,7 +4803,7 @@
         <v>31</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4878,7 +4881,7 @@
         <v>13</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -4982,7 +4985,7 @@
         <v>21</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5008,7 +5011,7 @@
         <v>23</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5086,7 +5089,7 @@
         <v>31</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,7 +5375,7 @@
         <v>31</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5658,7 +5661,7 @@
         <v>31</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5814,7 +5817,7 @@
         <v>19</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -5840,7 +5843,7 @@
         <v>21</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6334,7 +6337,7 @@
         <v>15</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6386,7 +6389,7 @@
         <v>19</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6438,7 +6441,7 @@
         <v>23</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6516,7 +6519,7 @@
         <v>31</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6802,7 +6805,7 @@
         <v>31</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -7088,7 +7091,7 @@
         <v>31</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7192,7 +7195,7 @@
         <v>15</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7244,7 +7247,7 @@
         <v>19</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7270,7 +7273,7 @@
         <v>21</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7296,7 +7299,7 @@
         <v>23</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7374,7 +7377,7 @@
         <v>31</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7434,13 +7437,13 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D222" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -7452,7 +7455,7 @@
         <v>13</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7460,13 +7463,13 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C223" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D223" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E223">
         <v>2</v>
@@ -7478,7 +7481,7 @@
         <v>15</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7486,13 +7489,13 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C224" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D224" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -7504,7 +7507,7 @@
         <v>17</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7512,13 +7515,13 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C225" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D225" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E225">
         <v>4</v>
@@ -7530,7 +7533,7 @@
         <v>19</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7538,13 +7541,13 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C226" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D226" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E226">
         <v>5</v>
@@ -7556,7 +7559,7 @@
         <v>21</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7564,13 +7567,13 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C227" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D227" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E227">
         <v>6</v>
@@ -7582,7 +7585,7 @@
         <v>23</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7590,13 +7593,13 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C228" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D228" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E228">
         <v>7</v>
@@ -7608,7 +7611,7 @@
         <v>26</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7616,13 +7619,13 @@
         <v>24</v>
       </c>
       <c r="B229" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C229" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D229" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E229">
         <v>8</v>
@@ -7634,7 +7637,7 @@
         <v>28</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7642,13 +7645,13 @@
         <v>29</v>
       </c>
       <c r="B230" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C230" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D230" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E230">
         <v>9</v>
@@ -7660,7 +7663,7 @@
         <v>31</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7668,13 +7671,13 @@
         <v>29</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C231" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D231" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E231">
         <v>10</v>
@@ -7694,13 +7697,13 @@
         <v>34</v>
       </c>
       <c r="B232" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C232" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D232" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E232">
         <v>11</v>
@@ -7720,13 +7723,13 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D233" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -7738,7 +7741,7 @@
         <v>13</v>
       </c>
       <c r="H233">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7746,13 +7749,13 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C234" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D234" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -7764,7 +7767,7 @@
         <v>15</v>
       </c>
       <c r="H234">
-        <v>4.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,13 +7775,13 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C235" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D235" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -7790,7 +7793,7 @@
         <v>17</v>
       </c>
       <c r="H235">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7798,13 +7801,13 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C236" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D236" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E236">
         <v>4</v>
@@ -7816,7 +7819,7 @@
         <v>19</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7824,13 +7827,13 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C237" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D237" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -7850,13 +7853,13 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C238" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D238" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E238">
         <v>6</v>
@@ -7876,13 +7879,13 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C239" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D239" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E239">
         <v>7</v>
@@ -7894,7 +7897,7 @@
         <v>26</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -7902,13 +7905,13 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C240" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D240" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E240">
         <v>8</v>
@@ -7920,7 +7923,7 @@
         <v>28</v>
       </c>
       <c r="H240">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -7928,13 +7931,13 @@
         <v>29</v>
       </c>
       <c r="B241" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C241" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D241" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E241">
         <v>9</v>
@@ -7946,7 +7949,7 @@
         <v>31</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7954,13 +7957,13 @@
         <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C242" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D242" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -7980,13 +7983,13 @@
         <v>34</v>
       </c>
       <c r="B243" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C243" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D243" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E243">
         <v>11</v>
@@ -8232,7 +8235,7 @@
         <v>31</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8336,7 +8339,7 @@
         <v>15</v>
       </c>
       <c r="H256">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8362,7 +8365,7 @@
         <v>17</v>
       </c>
       <c r="H257">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -8388,7 +8391,7 @@
         <v>19</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -8414,7 +8417,7 @@
         <v>21</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -8440,7 +8443,7 @@
         <v>23</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -8518,7 +8521,7 @@
         <v>31</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -8622,7 +8625,7 @@
         <v>15</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -8648,7 +8651,7 @@
         <v>17</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -8674,7 +8677,7 @@
         <v>19</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -8700,7 +8703,7 @@
         <v>21</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -8726,7 +8729,7 @@
         <v>23</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -8804,7 +8807,7 @@
         <v>31</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -9090,7 +9093,7 @@
         <v>31</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -9220,7 +9223,7 @@
         <v>17</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -9246,7 +9249,7 @@
         <v>19</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -9272,7 +9275,7 @@
         <v>21</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -9298,7 +9301,7 @@
         <v>23</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -9376,7 +9379,7 @@
         <v>31</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -9480,7 +9483,7 @@
         <v>15</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -9506,7 +9509,7 @@
         <v>17</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -9532,7 +9535,7 @@
         <v>19</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -9558,7 +9561,7 @@
         <v>21</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -9584,7 +9587,7 @@
         <v>23</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -9662,7 +9665,7 @@
         <v>31</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -10234,7 +10237,7 @@
         <v>31</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -10520,7 +10523,7 @@
         <v>31</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -10806,7 +10809,7 @@
         <v>31</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -10910,7 +10913,7 @@
         <v>15</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -10962,7 +10965,7 @@
         <v>19</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -10988,7 +10991,7 @@
         <v>21</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -11014,7 +11017,7 @@
         <v>23</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -11092,7 +11095,7 @@
         <v>31</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -11378,7 +11381,7 @@
         <v>31</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -11508,7 +11511,7 @@
         <v>17</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -11534,7 +11537,7 @@
         <v>19</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -11820,7 +11823,7 @@
         <v>19</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -11846,7 +11849,7 @@
         <v>21</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -11872,7 +11875,7 @@
         <v>23</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -12236,7 +12239,7 @@
         <v>31</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -22172,8 +22175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="K211" sqref="K211"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="13">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -1689,7 +1689,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="33">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="35">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -1955,7 +1955,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="44">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="46">
@@ -2335,7 +2335,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="50">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="51">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="52">
@@ -2525,7 +2525,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="55">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="57">
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="68">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="81">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="83">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="84">
@@ -3665,7 +3665,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="88">
@@ -3855,7 +3855,7 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="90">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="99">
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -4425,7 +4425,7 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
@@ -4463,7 +4463,7 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="106">
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="107">
@@ -4615,7 +4615,7 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="110">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="112">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="121">
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -5147,7 +5147,7 @@
         </is>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124">
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="134">
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="143">
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145">
@@ -6287,7 +6287,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="154">
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="156">
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="160">
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="161">
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="165">
@@ -6781,7 +6781,7 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="167">
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="180">
@@ -7351,7 +7351,7 @@
         </is>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="182">
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="184">
@@ -7541,7 +7541,7 @@
         </is>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="187">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="198">
@@ -8035,7 +8035,7 @@
         </is>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="200">
@@ -8377,7 +8377,7 @@
         </is>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="209">
@@ -8453,7 +8453,7 @@
         </is>
       </c>
       <c r="H210" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="211">
@@ -8529,7 +8529,7 @@
         </is>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="213">
@@ -8605,7 +8605,7 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="215">
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="216">
@@ -8681,7 +8681,7 @@
         </is>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="217">
@@ -8795,7 +8795,7 @@
         </is>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="220">
@@ -8882,17 +8882,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="223">
@@ -8920,17 +8920,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -8947,7 +8947,7 @@
         </is>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="224">
@@ -8958,17 +8958,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -8985,7 +8985,7 @@
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="225">
@@ -8996,17 +8996,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -9023,7 +9023,7 @@
         </is>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="226">
@@ -9034,17 +9034,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="227">
@@ -9072,17 +9072,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9099,7 +9099,7 @@
         </is>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="228">
@@ -9110,17 +9110,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -9137,7 +9137,7 @@
         </is>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -9148,17 +9148,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="230">
@@ -9186,17 +9186,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="231">
@@ -9224,17 +9224,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -9262,17 +9262,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>240499</t>
+          <t>240103</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>5156520</t>
+          <t>1017933787</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>MURILLO GARCIA, ANTONELLA</t>
+          <t>MUÑOZ LOPEZ, VALENTINA</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -9289,7 +9289,7 @@
         </is>
       </c>
       <c r="H232" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="233">
@@ -9300,17 +9300,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -9327,7 +9327,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -9338,17 +9338,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -9365,7 +9365,7 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -9376,17 +9376,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="H235" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="236">
@@ -9414,17 +9414,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -9441,7 +9441,7 @@
         </is>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="237">
@@ -9452,17 +9452,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -9490,17 +9490,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -9528,17 +9528,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -9555,7 +9555,7 @@
         </is>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -9566,17 +9566,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -9593,7 +9593,7 @@
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -9604,17 +9604,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -9631,7 +9631,7 @@
         </is>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="242">
@@ -9642,17 +9642,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -9680,17 +9680,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>240103</t>
+          <t>240499</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1017933787</t>
+          <t>5156520</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>MUÑOZ LOPEZ, VALENTINA</t>
+          <t>MURILLO GARCIA, ANTONELLA</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -9707,7 +9707,7 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="244">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="253">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="H256" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="H257" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="258">
@@ -10277,7 +10277,7 @@
         </is>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="259">
@@ -10315,7 +10315,7 @@
         </is>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="260">
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="261">
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="264">
@@ -10543,7 +10543,7 @@
         </is>
       </c>
       <c r="H265" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="266">
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272">
@@ -10885,7 +10885,7 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="275">
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="H276" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="277">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="286">
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="H287" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="288">
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -11531,7 +11531,7 @@
         </is>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -11569,7 +11569,7 @@
         </is>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="297">
@@ -11797,7 +11797,7 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="299">
@@ -11873,7 +11873,7 @@
         </is>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -11911,7 +11911,7 @@
         </is>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="302">
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303">
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304">
@@ -12025,7 +12025,7 @@
         </is>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="305">
@@ -12139,7 +12139,7 @@
         </is>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="308">
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="H309" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="310">
@@ -12557,7 +12557,7 @@
         </is>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="319">
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="H320" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="321">
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330">
@@ -13051,7 +13051,7 @@
         </is>
       </c>
       <c r="H331" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="332">
@@ -13393,7 +13393,7 @@
         </is>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="341">
@@ -13811,7 +13811,7 @@
         </is>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="352">
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="H353" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="354">
@@ -13963,7 +13963,7 @@
         </is>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="356">
@@ -14039,7 +14039,7 @@
         </is>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -14077,7 +14077,7 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="360">
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="363">
@@ -14305,7 +14305,7 @@
         </is>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="365">
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="374">
@@ -14723,7 +14723,7 @@
         </is>
       </c>
       <c r="H375" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="376">
@@ -14837,7 +14837,7 @@
         </is>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -14875,7 +14875,7 @@
         </is>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -15065,7 +15065,7 @@
         </is>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="385">
@@ -15141,7 +15141,7 @@
         </is>
       </c>
       <c r="H386" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387">
@@ -15293,7 +15293,7 @@
         </is>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="391">
@@ -15331,7 +15331,7 @@
         </is>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="392">
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -15559,7 +15559,7 @@
         </is>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="398">
@@ -15901,7 +15901,7 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="407">

--- a/Notas_Master.xlsx
+++ b/Notas_Master.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="105" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="803" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="115" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="116" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="105" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="803" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="115" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="116" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="20">
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="34">
@@ -2069,7 +2069,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="45">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="46">
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="77">
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="78">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -3513,7 +3513,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3703,7 +3703,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="86">
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="89">
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4235,7 +4235,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="100">
@@ -4653,7 +4653,7 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="111">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="122">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="133">
@@ -5603,7 +5603,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -5679,7 +5679,7 @@
         </is>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -5717,7 +5717,7 @@
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="144">
@@ -6325,7 +6325,7 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="155">
@@ -6591,7 +6591,7 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
@@ -6743,7 +6743,7 @@
         </is>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="166">
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -6933,7 +6933,7 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="176">
@@ -7161,7 +7161,7 @@
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177">
@@ -7579,7 +7579,7 @@
         </is>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="188">
@@ -7997,7 +7997,7 @@
         </is>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="199">
@@ -8415,7 +8415,7 @@
         </is>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="H218" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="219">
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="221">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="232">
@@ -9669,7 +9669,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="265">
@@ -10619,7 +10619,7 @@
         </is>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="268">
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="269">
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="270">
@@ -10733,7 +10733,7 @@
         </is>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="271">
@@ -10809,7 +10809,7 @@
         </is>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="273">
@@ -10847,7 +10847,7 @@
         </is>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="274">
@@ -10923,7 +10923,7 @@
         </is>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="276">
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="287">
@@ -11417,7 +11417,7 @@
         </is>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -11759,7 +11759,7 @@
         </is>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="298">
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="309">
@@ -12595,7 +12595,7 @@
         </is>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -13013,7 +13013,7 @@
         </is>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="331">
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -13849,7 +13849,7 @@
         </is>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="353">
@@ -14267,7 +14267,7 @@
         </is>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="364">
@@ -14609,7 +14609,7 @@
         </is>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373">
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="375">
@@ -15103,7 +15103,7 @@
         </is>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="386">
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="397">
@@ -15939,7 +15939,7 @@
         </is>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="408">
@@ -16991,7 +16991,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -17029,7 +17029,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -17105,7 +17105,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="30">
@@ -17143,7 +17143,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
@@ -17181,7 +17181,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -17219,7 +17219,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -17257,7 +17257,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="34">
@@ -17295,7 +17295,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -17409,7 +17409,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="38">
@@ -24857,7 +24857,7 @@
         </is>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -25199,7 +25199,7 @@
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -26909,7 +26909,7 @@
         </is>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="288">
@@ -26947,7 +26947,7 @@
         </is>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -27061,7 +27061,7 @@
         </is>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -27593,7 +27593,7 @@
         </is>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="306">
@@ -27631,7 +27631,7 @@
         </is>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -29417,7 +29417,7 @@
         </is>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="354">
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="359">
@@ -30545,7 +30545,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -30621,7 +30621,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
@@ -30849,7 +30849,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -31001,7 +31001,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -31115,7 +31115,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
@@ -31191,7 +31191,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -31267,7 +31267,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -31305,7 +31305,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -31343,7 +31343,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -31381,7 +31381,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="26">
@@ -31457,7 +31457,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
@@ -31799,7 +31799,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="37">
@@ -32141,7 +32141,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -32483,7 +32483,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -32825,7 +32825,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="64">
@@ -33167,7 +33167,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -33509,7 +33509,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -33585,7 +33585,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -33851,7 +33851,7 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="91">
@@ -34155,7 +34155,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -34193,7 +34193,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -34535,7 +34535,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -34839,7 +34839,7 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -34877,7 +34877,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -35219,7 +35219,7 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -35333,7 +35333,7 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -35561,7 +35561,7 @@
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -35903,7 +35903,7 @@
         </is>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="145">
@@ -35979,7 +35979,7 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="147">
@@ -36017,7 +36017,7 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>2.5</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="148">
@@ -36245,7 +36245,7 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -36549,7 +36549,7 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="162">
@@ -36587,7 +36587,7 @@
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -36891,7 +36891,7 @@
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="171">
@@ -36929,7 +36929,7 @@
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -37081,7 +37081,7 @@
         </is>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -37271,7 +37271,7 @@
         </is>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="181">
@@ -37613,7 +37613,7 @@
         </is>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="190">
@@ -37955,7 +37955,7 @@
         </is>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="199">
@@ -38259,7 +38259,7 @@
         </is>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -38297,7 +38297,7 @@
         </is>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="208">
